--- a/MatrizRastreabilidade.xlsx
+++ b/MatrizRastreabilidade.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela de Atributos" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="60">
   <si>
     <t xml:space="preserve">Tabela de Atributos</t>
   </si>
@@ -201,33 +201,6 @@
   </si>
   <si>
     <t xml:space="preserve">Requisitos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrada de valores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Separação de números impares e pares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soma de números ímpares e pares separadamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comparação entre as somas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divisão da maior soma pela menor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mostrar o resultado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mensagens de erro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opção de fazer outra operação sem fechar o Sistema </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layout especifico para entrada e saída de dados</t>
   </si>
 </sst>
 </file>
@@ -237,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -296,6 +269,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -410,7 +389,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -515,6 +494,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -531,8 +514,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -614,8 +605,8 @@
   </sheetPr>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1011,8 +1002,8 @@
   </sheetPr>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1086,27 +1077,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="9" t="s">
         <v>52</v>
       </c>
@@ -1122,24 +1103,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>52</v>
-      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="L4" s="11" t="s">
         <v>24</v>
       </c>
@@ -1151,9 +1128,7 @@
       <c r="A5" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
         <v>53</v>
       </c>
@@ -1161,15 +1136,13 @@
       <c r="E5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>52</v>
-      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="J5" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="L5" s="12" t="s">
         <v>28</v>
       </c>
@@ -1181,25 +1154,21 @@
       <c r="A6" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="9"/>
       <c r="G6" s="25" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="J6" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="L6" s="5" t="s">
         <v>54</v>
       </c>
@@ -1209,61 +1178,49 @@
       <c r="A7" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="25" t="s">
-        <v>52</v>
-      </c>
+      <c r="G7" s="26"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="L7" s="26" t="s">
+      <c r="J7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="n">
+      <c r="A8" s="29" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="28" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1271,130 +1228,138 @@
       <c r="A9" s="23" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>52</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="L9" s="5" t="s">
         <v>59</v>
       </c>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="L10" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M10" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="G11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="L11" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M11" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L12" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="M12" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M12" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L13" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="M13" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M13" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L14" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="M14" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M14" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L15" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="M15" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M15" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L16" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="M16" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M16" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L17" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="M17" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M17" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L18" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="M18" s="6" t="s">
-        <v>68</v>
+      <c r="M18" s="33" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
